--- a/brief/Modèle-audit-SEO.xlsx
+++ b/brief/Modèle-audit-SEO.xlsx
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -215,12 +215,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -313,7 +307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -375,10 +369,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,10 +453,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -698,7 +688,7 @@
       <c r="D17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="8"/>
@@ -721,7 +711,7 @@
     </row>
     <row r="19" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -730,7 +720,7 @@
       <c r="D19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="16" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="11"/>
